--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem1/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem1/17/incorrect_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
+          <t>Precision Landing Correcting Landing Position .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-12</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,12 +496,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -521,42 +521,42 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Precision Landing Correcting Landing Position</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Precision Landing Correcting Landing Position .</t>
+          <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Precision Landing Correcting Landing Position</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -587,46 +587,46 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Propulsion output is limited to ensure the health of the battery</t>
+          <t>Precision Landing Locating Landing Point</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2-12</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
+          <t>Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>2-12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -637,46 +637,46 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>The target area is in an Altitude Zone</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6-13</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -687,21 +687,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>When exceeding nnn,</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -712,24 +712,124 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
+        <v>19</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0-10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>19</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>GEO Zone Info:</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>19</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>The target area is in an Altitude Zone</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3-10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
         <v>20</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Obstacle Avoidance is not available</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>9-13</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6-13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>20</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>When exceeding nnn,</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6-8</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>False</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem1/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem1/17/incorrect_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Precision Landing Correcting Landing Position .</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,12 +496,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -521,42 +521,42 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Precision Landing Correcting Landing Position</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Precision Landing Locating Landing Point .</t>
+          <t>Precision Landing Correcting Landing Position .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Precision Landing Correcting Landing Position</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -587,46 +587,46 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Precision Landing Locating Landing Point .</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Precision Landing Locating Landing Point</t>
+          <t>Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>2-12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Propulsion output is limited to ensure the health of the battery</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2-12</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -637,46 +637,46 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>6-13</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -687,21 +687,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available</t>
+          <t>When exceeding nnn,</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -712,124 +712,24 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>19</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>GEO Zone Info:</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0-2</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>19</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>The target area is in an Altitude Zone</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3-10</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>20</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>6-13</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>20</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>When exceeding nnn,</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>6-8</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
         <is>
           <t>False</t>
         </is>
